--- a/Services/GroupLevelDistribution.xlsx
+++ b/Services/GroupLevelDistribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\source\repos\Skischule\Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A197A363-1FB8-408B-94D8-5B956BC7207A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE00612F-1D93-4D45-8D76-8278A9F9E9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2BDFE55F-F4E6-47F1-90D9-C47C59B4CF3F}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="13185" xr2:uid="{2BDFE55F-F4E6-47F1-90D9-C47C59B4CF3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>Könner</t>
   </si>
   <si>
-    <t>Experten</t>
+    <t>Experte</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +415,7 @@
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
